--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cxadr-Cxadr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cxadr-Cxadr.xlsx
@@ -531,16 +531,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.522813</v>
+        <v>3.17597</v>
       </c>
       <c r="H2">
-        <v>13.568439</v>
+        <v>9.527909999999999</v>
       </c>
       <c r="I2">
-        <v>0.5686345655850849</v>
+        <v>0.6318892193826289</v>
       </c>
       <c r="J2">
-        <v>0.5686345655850847</v>
+        <v>0.6318892193826288</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -549,28 +549,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.522813</v>
+        <v>3.17597</v>
       </c>
       <c r="N2">
-        <v>13.568439</v>
+        <v>9.527909999999999</v>
       </c>
       <c r="O2">
-        <v>0.5686345655850849</v>
+        <v>0.6318892193826289</v>
       </c>
       <c r="P2">
-        <v>0.5686345655850847</v>
+        <v>0.6318892193826288</v>
       </c>
       <c r="Q2">
-        <v>20.455837432969</v>
+        <v>10.0867854409</v>
       </c>
       <c r="R2">
-        <v>184.102536896721</v>
+        <v>90.78106896809997</v>
       </c>
       <c r="S2">
-        <v>0.3233452691781382</v>
+        <v>0.3992839855719881</v>
       </c>
       <c r="T2">
-        <v>0.3233452691781381</v>
+        <v>0.399283985571988</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.522813</v>
+        <v>3.17597</v>
       </c>
       <c r="H3">
-        <v>13.568439</v>
+        <v>9.527909999999999</v>
       </c>
       <c r="I3">
-        <v>0.5686345655850849</v>
+        <v>0.6318892193826289</v>
       </c>
       <c r="J3">
-        <v>0.5686345655850847</v>
+        <v>0.6318892193826288</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,22 +617,22 @@
         <v>3.958436</v>
       </c>
       <c r="O3">
-        <v>0.1658925934852462</v>
+        <v>0.2625227394062387</v>
       </c>
       <c r="P3">
-        <v>0.1658925934852462</v>
+        <v>0.2625227394062387</v>
       </c>
       <c r="Q3">
-        <v>5.967755266822667</v>
+        <v>4.190624660973333</v>
       </c>
       <c r="R3">
-        <v>53.709797401404</v>
+        <v>37.71562194876</v>
       </c>
       <c r="S3">
-        <v>0.09433226283026605</v>
+        <v>0.1658852888735975</v>
       </c>
       <c r="T3">
-        <v>0.09433226283026604</v>
+        <v>0.1658852888735975</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.522813</v>
+        <v>3.17597</v>
       </c>
       <c r="H4">
-        <v>13.568439</v>
+        <v>9.527909999999999</v>
       </c>
       <c r="I4">
-        <v>0.5686345655850849</v>
+        <v>0.6318892193826289</v>
       </c>
       <c r="J4">
-        <v>0.5686345655850847</v>
+        <v>0.6318892193826288</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -673,28 +673,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.111521333333334</v>
+        <v>0.5307013333333334</v>
       </c>
       <c r="N4">
-        <v>6.334564</v>
+        <v>1.592104</v>
       </c>
       <c r="O4">
-        <v>0.265472840929669</v>
+        <v>0.1055880412111325</v>
       </c>
       <c r="P4">
-        <v>0.265472840929669</v>
+        <v>0.1055880412111324</v>
       </c>
       <c r="Q4">
-        <v>9.550016136177335</v>
+        <v>1.685491513626666</v>
       </c>
       <c r="R4">
-        <v>85.950145225596</v>
+        <v>15.16942362264</v>
       </c>
       <c r="S4">
-        <v>0.1509570335766807</v>
+        <v>0.06671994493704334</v>
       </c>
       <c r="T4">
-        <v>0.1509570335766806</v>
+        <v>0.06671994493704331</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,10 +723,10 @@
         <v>3.958436</v>
       </c>
       <c r="I5">
-        <v>0.1658925934852462</v>
+        <v>0.2625227394062387</v>
       </c>
       <c r="J5">
-        <v>0.1658925934852462</v>
+        <v>0.2625227394062387</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -735,28 +735,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.522813</v>
+        <v>3.17597</v>
       </c>
       <c r="N5">
-        <v>13.568439</v>
+        <v>9.527909999999999</v>
       </c>
       <c r="O5">
-        <v>0.5686345655850849</v>
+        <v>0.6318892193826289</v>
       </c>
       <c r="P5">
-        <v>0.5686345655850847</v>
+        <v>0.6318892193826288</v>
       </c>
       <c r="Q5">
-        <v>5.967755266822667</v>
+        <v>4.190624660973333</v>
       </c>
       <c r="R5">
-        <v>53.709797401404</v>
+        <v>37.71562194876</v>
       </c>
       <c r="S5">
-        <v>0.09433226283026605</v>
+        <v>0.1658852888735975</v>
       </c>
       <c r="T5">
-        <v>0.09433226283026604</v>
+        <v>0.1658852888735975</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,10 +785,10 @@
         <v>3.958436</v>
       </c>
       <c r="I6">
-        <v>0.1658925934852462</v>
+        <v>0.2625227394062387</v>
       </c>
       <c r="J6">
-        <v>0.1658925934852462</v>
+        <v>0.2625227394062387</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,10 +803,10 @@
         <v>3.958436</v>
       </c>
       <c r="O6">
-        <v>0.1658925934852462</v>
+        <v>0.2625227394062387</v>
       </c>
       <c r="P6">
-        <v>0.1658925934852462</v>
+        <v>0.2625227394062387</v>
       </c>
       <c r="Q6">
         <v>1.741023951788444</v>
@@ -815,10 +815,10 @@
         <v>15.669215566096</v>
       </c>
       <c r="S6">
-        <v>0.02752035257326115</v>
+        <v>0.06891818870535592</v>
       </c>
       <c r="T6">
-        <v>0.02752035257326115</v>
+        <v>0.06891818870535592</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,10 +847,10 @@
         <v>3.958436</v>
       </c>
       <c r="I7">
-        <v>0.1658925934852462</v>
+        <v>0.2625227394062387</v>
       </c>
       <c r="J7">
-        <v>0.1658925934852462</v>
+        <v>0.2625227394062387</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -859,28 +859,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.111521333333334</v>
+        <v>0.5307013333333334</v>
       </c>
       <c r="N7">
-        <v>6.334564</v>
+        <v>1.592104</v>
       </c>
       <c r="O7">
-        <v>0.265472840929669</v>
+        <v>0.1055880412111325</v>
       </c>
       <c r="P7">
-        <v>0.265472840929669</v>
+        <v>0.1055880412111324</v>
       </c>
       <c r="Q7">
-        <v>2.786107353544889</v>
+        <v>0.7002490877048889</v>
       </c>
       <c r="R7">
-        <v>25.074966181904</v>
+        <v>6.302241789344</v>
       </c>
       <c r="S7">
-        <v>0.04403997808171901</v>
+        <v>0.02771926182728532</v>
       </c>
       <c r="T7">
-        <v>0.04403997808171901</v>
+        <v>0.02771926182728532</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,16 +903,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.111521333333334</v>
+        <v>0.5307013333333334</v>
       </c>
       <c r="H8">
-        <v>6.334564</v>
+        <v>1.592104</v>
       </c>
       <c r="I8">
-        <v>0.265472840929669</v>
+        <v>0.1055880412111325</v>
       </c>
       <c r="J8">
-        <v>0.265472840929669</v>
+        <v>0.1055880412111324</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -921,28 +921,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.522813</v>
+        <v>3.17597</v>
       </c>
       <c r="N8">
-        <v>13.568439</v>
+        <v>9.527909999999999</v>
       </c>
       <c r="O8">
-        <v>0.5686345655850849</v>
+        <v>0.6318892193826289</v>
       </c>
       <c r="P8">
-        <v>0.5686345655850847</v>
+        <v>0.6318892193826288</v>
       </c>
       <c r="Q8">
-        <v>9.550016136177335</v>
+        <v>1.685491513626666</v>
       </c>
       <c r="R8">
-        <v>85.950145225596</v>
+        <v>15.16942362264</v>
       </c>
       <c r="S8">
-        <v>0.1509570335766807</v>
+        <v>0.06671994493704334</v>
       </c>
       <c r="T8">
-        <v>0.1509570335766806</v>
+        <v>0.06671994493704331</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,16 +965,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.111521333333334</v>
+        <v>0.5307013333333334</v>
       </c>
       <c r="H9">
-        <v>6.334564</v>
+        <v>1.592104</v>
       </c>
       <c r="I9">
-        <v>0.265472840929669</v>
+        <v>0.1055880412111325</v>
       </c>
       <c r="J9">
-        <v>0.265472840929669</v>
+        <v>0.1055880412111324</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,22 +989,22 @@
         <v>3.958436</v>
       </c>
       <c r="O9">
-        <v>0.1658925934852462</v>
+        <v>0.2625227394062387</v>
       </c>
       <c r="P9">
-        <v>0.1658925934852462</v>
+        <v>0.2625227394062387</v>
       </c>
       <c r="Q9">
-        <v>2.786107353544889</v>
+        <v>0.7002490877048889</v>
       </c>
       <c r="R9">
-        <v>25.074966181904</v>
+        <v>6.302241789344</v>
       </c>
       <c r="S9">
-        <v>0.04403997808171901</v>
+        <v>0.02771926182728532</v>
       </c>
       <c r="T9">
-        <v>0.04403997808171901</v>
+        <v>0.02771926182728532</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,16 +1027,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.111521333333334</v>
+        <v>0.5307013333333334</v>
       </c>
       <c r="H10">
-        <v>6.334564</v>
+        <v>1.592104</v>
       </c>
       <c r="I10">
-        <v>0.265472840929669</v>
+        <v>0.1055880412111325</v>
       </c>
       <c r="J10">
-        <v>0.265472840929669</v>
+        <v>0.1055880412111324</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1045,28 +1045,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.111521333333334</v>
+        <v>0.5307013333333334</v>
       </c>
       <c r="N10">
-        <v>6.334564</v>
+        <v>1.592104</v>
       </c>
       <c r="O10">
-        <v>0.265472840929669</v>
+        <v>0.1055880412111325</v>
       </c>
       <c r="P10">
-        <v>0.265472840929669</v>
+        <v>0.1055880412111324</v>
       </c>
       <c r="Q10">
-        <v>4.458522341121779</v>
+        <v>0.2816439052017778</v>
       </c>
       <c r="R10">
-        <v>40.126701070096</v>
+        <v>2.534795146816</v>
       </c>
       <c r="S10">
-        <v>0.07047582927126934</v>
+        <v>0.01114883444680381</v>
       </c>
       <c r="T10">
-        <v>0.07047582927126934</v>
+        <v>0.0111488344468038</v>
       </c>
     </row>
   </sheetData>
